--- a/biology/Zoologie/Cypraeovula_algoensis/Cypraeovula_algoensis.xlsx
+++ b/biology/Zoologie/Cypraeovula_algoensis/Cypraeovula_algoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypraeovula algoensis est une espèce de mollusque gastéropode de la famille des Cypraeidae. Cette porcelaine doit son nom à la baie d'Algoa[réf. nécessaire] en Afrique du Sud.
 </t>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous-espèces
-Cypraeovula algoensis algoensis (Gray, 1825)
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cypraeovula algoensis algoensis (Gray, 1825)
 Cypraeovula algoensis permarginata Lorenz, 1989.
-Cypraeovula algoensis sanfrancisca  Chiapponi, 1999
-Variétés
-Cypraea algoensis f. bettyensis Lorenz, 2002.</t>
+Cypraeovula algoensis sanfrancisca  Chiapponi, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cypraeovula_algoensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypraeovula_algoensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cypraea algoensis f. bettyensis Lorenz, 2002.</t>
         </is>
       </c>
     </row>
